--- a/euler76/euler第76题.xlsx
+++ b/euler76/euler第76题.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>i</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,26 @@
   </si>
   <si>
     <t>后面的所有数都不能大于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min(1, 5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min(2, 4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min(3, 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min(4, 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min(5, 1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,15 +198,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -494,7 +514,7 @@
   <dimension ref="B1:N30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="L12" sqref="B2:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -508,22 +528,22 @@
   <sheetData>
     <row r="1" spans="2:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="L2" s="4"/>
@@ -538,18 +558,18 @@
       <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="2">
-        <v>1</v>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>9</v>
@@ -571,16 +591,16 @@
       <c r="F4" s="4"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="9">
         <v>2</v>
       </c>
-      <c r="K4" s="5">
-        <v>2</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="K4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="1"/>
@@ -602,10 +622,10 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
@@ -623,16 +643,16 @@
       <c r="F6" s="4"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="9">
         <v>3</v>
       </c>
-      <c r="K6" s="5">
-        <v>3</v>
-      </c>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="M6" s="1"/>
@@ -654,10 +674,10 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="M7" s="1"/>
@@ -681,10 +701,10 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
@@ -704,16 +724,16 @@
       <c r="F9" s="4"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="9">
         <v>4</v>
       </c>
-      <c r="K9" s="5">
-        <v>2</v>
-      </c>
-      <c r="L9" s="5" t="s">
+      <c r="K9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="9" t="s">
         <v>7</v>
       </c>
       <c r="M9" s="1"/>
@@ -737,10 +757,10 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="M10" s="1"/>
@@ -766,10 +786,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
@@ -801,8 +821,8 @@
       <c r="J12" s="2">
         <v>5</v>
       </c>
-      <c r="K12" s="2">
-        <v>1</v>
+      <c r="K12" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>6</v>
@@ -1064,18 +1084,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="J9:J11"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="L6:L8"/>
     <mergeCell ref="L9:L11"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="K6:K8"/>
     <mergeCell ref="K9:K11"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="J9:J11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
